--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3791.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3791.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.105130620857473</v>
+        <v>1.265887379646301</v>
       </c>
       <c r="B1">
-        <v>2.370533616278405</v>
+        <v>3.475752115249634</v>
       </c>
       <c r="C1">
-        <v>2.509669859456018</v>
+        <v>4.56719970703125</v>
       </c>
       <c r="D1">
-        <v>3.313973737538708</v>
+        <v>2.623500823974609</v>
       </c>
       <c r="E1">
-        <v>2.513286782784444</v>
+        <v>2.203383922576904</v>
       </c>
     </row>
   </sheetData>
